--- a/output/VENTOR_19941946000180.xlsx
+++ b/output/VENTOR_19941946000180.xlsx
@@ -1208,10 +1208,10 @@
         <v>44165</v>
       </c>
       <c r="B75">
-        <v>1.204873366741109</v>
+        <v>1.189564766313174</v>
       </c>
       <c r="C75">
-        <v>0.04140772320021524</v>
+        <v>0.03417715161387447</v>
       </c>
     </row>
   </sheetData>

--- a/output/VENTOR_19941946000180.xlsx
+++ b/output/VENTOR_19941946000180.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VENTOR IMA-B HEDGE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,832 +383,610 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41943</v>
       </c>
       <c r="B2">
-        <v>-0.00405821834268083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41973</v>
       </c>
       <c r="B3">
-        <v>0.01678596355678308</v>
-      </c>
-      <c r="C3">
         <v>0.02092911682526033</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42004</v>
       </c>
       <c r="B4">
-        <v>-0.006941356509687302</v>
-      </c>
-      <c r="C4">
         <v>-0.02333560937787804</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42035</v>
       </c>
       <c r="B5">
-        <v>0.0455361987819074</v>
-      </c>
-      <c r="C5">
         <v>0.05284436688164895</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42063</v>
       </c>
       <c r="B6">
-        <v>0.06491247634058417</v>
-      </c>
-      <c r="C6">
         <v>0.01853238327018314</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42094</v>
       </c>
       <c r="B7">
-        <v>0.04901962150908479</v>
-      </c>
-      <c r="C7">
         <v>-0.01492409487595903</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42124</v>
       </c>
       <c r="B8">
-        <v>0.04689687033594625</v>
-      </c>
-      <c r="C8">
         <v>-0.002023557166723755</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42155</v>
       </c>
       <c r="B9">
-        <v>0.1007404737558459</v>
-      </c>
-      <c r="C9">
         <v>0.05143162134262713</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42185</v>
       </c>
       <c r="B10">
-        <v>0.08044062021771148</v>
-      </c>
-      <c r="C10">
         <v>-0.01844199792969292</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42216</v>
       </c>
       <c r="B11">
-        <v>0.1026926680453266</v>
-      </c>
-      <c r="C11">
         <v>0.02059534546482644</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42247</v>
       </c>
       <c r="B12">
-        <v>0.02845093925765441</v>
-      </c>
-      <c r="C12">
         <v>-0.06732767065484879</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42277</v>
       </c>
       <c r="B13">
-        <v>-0.03023845106869361</v>
-      </c>
-      <c r="C13">
         <v>-0.05706581430973323</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42308</v>
       </c>
       <c r="B14">
-        <v>-0.00401918839615778</v>
-      </c>
-      <c r="C14">
         <v>0.02703681405127889</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42338</v>
       </c>
       <c r="B15">
-        <v>0.008265188573385762</v>
-      </c>
-      <c r="C15">
         <v>0.01233394943599553</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42369</v>
       </c>
       <c r="B16">
-        <v>0.02835346395753713</v>
-      </c>
-      <c r="C16">
         <v>0.01992360304789909</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42400</v>
       </c>
       <c r="B17">
-        <v>0.08704066382770259</v>
-      </c>
-      <c r="C17">
         <v>0.05706909338770783</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42429</v>
       </c>
       <c r="B18">
-        <v>0.1187773869251671</v>
-      </c>
-      <c r="C18">
         <v>0.02919552520299717</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42460</v>
       </c>
       <c r="B19">
-        <v>0.1114077962318181</v>
-      </c>
-      <c r="C19">
         <v>-0.00658718238272904</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42490</v>
       </c>
       <c r="B20">
-        <v>0.1801048830246614</v>
-      </c>
-      <c r="C20">
         <v>0.06181087358371795</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42521</v>
       </c>
       <c r="B21">
-        <v>0.1604097945252534</v>
-      </c>
-      <c r="C21">
         <v>-0.01668926955791306</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42551</v>
       </c>
       <c r="B22">
-        <v>0.2249675165304768</v>
-      </c>
-      <c r="C22">
         <v>0.05563355489569544</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42582</v>
       </c>
       <c r="B23">
-        <v>0.2574795615503254</v>
-      </c>
-      <c r="C23">
         <v>0.02654114870893376</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42613</v>
       </c>
       <c r="B24">
-        <v>0.273726075489094</v>
-      </c>
-      <c r="C24">
         <v>0.01291990298334444</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42643</v>
       </c>
       <c r="B25">
-        <v>0.303552621229304</v>
-      </c>
-      <c r="C25">
         <v>0.02341676622169886</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42674</v>
       </c>
       <c r="B26">
-        <v>0.3328462887200467</v>
-      </c>
-      <c r="C26">
         <v>0.02247217873193152</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42704</v>
       </c>
       <c r="B27">
-        <v>0.2844154020930805</v>
-      </c>
-      <c r="C27">
         <v>-0.03633643807004572</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42735</v>
       </c>
       <c r="B28">
-        <v>0.3250962556142887</v>
-      </c>
-      <c r="C28">
         <v>0.03167266092801024</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42766</v>
       </c>
       <c r="B29">
-        <v>0.3479511767230179</v>
-      </c>
-      <c r="C29">
         <v>0.01724774408794483</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42794</v>
       </c>
       <c r="B30">
-        <v>0.423902158296303</v>
-      </c>
-      <c r="C30">
         <v>0.05634549892076079</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42825</v>
       </c>
       <c r="B31">
-        <v>0.4304124927690056</v>
-      </c>
-      <c r="C31">
         <v>0.004572178246075698</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42855</v>
       </c>
       <c r="B32">
-        <v>0.4322117533904777</v>
-      </c>
-      <c r="C32">
         <v>0.00125786137255357</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42886</v>
       </c>
       <c r="B33">
-        <v>0.3609690578150997</v>
-      </c>
-      <c r="C33">
         <v>-0.04974313009701603</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42916</v>
       </c>
       <c r="B34">
-        <v>0.3855675820450297</v>
-      </c>
-      <c r="C34">
         <v>0.01807427148227791</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42947</v>
       </c>
       <c r="B35">
-        <v>0.4550178870660533</v>
-      </c>
-      <c r="C35">
         <v>0.05012408338719809</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42978</v>
       </c>
       <c r="B36">
-        <v>0.4884529106682185</v>
-      </c>
-      <c r="C36">
         <v>0.02297911517059403</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43008</v>
       </c>
       <c r="B37">
-        <v>0.5310802832060713</v>
-      </c>
-      <c r="C37">
         <v>0.02863871086033609</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43039</v>
       </c>
       <c r="B38">
-        <v>0.4947281693660721</v>
-      </c>
-      <c r="C38">
         <v>-0.0237427875198537</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43069</v>
       </c>
       <c r="B39">
-        <v>0.4800623682614846</v>
-      </c>
-      <c r="C39">
         <v>-0.009811684428752909</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43100</v>
       </c>
       <c r="B40">
-        <v>0.5115645134150506</v>
-      </c>
-      <c r="C40">
         <v>0.02128433627467285</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43131</v>
       </c>
       <c r="B41">
-        <v>0.5710024423586435</v>
-      </c>
-      <c r="C41">
         <v>0.03932212513332023</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43159</v>
       </c>
       <c r="B42">
-        <v>0.5808533220757162</v>
-      </c>
-      <c r="C42">
         <v>0.006270442012988209</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43190</v>
       </c>
       <c r="B43">
-        <v>0.632910807611238</v>
-      </c>
-      <c r="C43">
         <v>0.03292999091602544</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43220</v>
       </c>
       <c r="B44">
-        <v>0.6289210908073524</v>
-      </c>
-      <c r="C44">
         <v>-0.002443315816938019</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43251</v>
       </c>
       <c r="B45">
-        <v>0.5828879571706078</v>
-      </c>
-      <c r="C45">
         <v>-0.02825989171392507</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43281</v>
       </c>
       <c r="B46">
-        <v>0.5945103185421121</v>
-      </c>
-      <c r="C46">
         <v>0.007342504135465777</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43312</v>
       </c>
       <c r="B47">
-        <v>0.6294032898660538</v>
-      </c>
-      <c r="C47">
         <v>0.02188318941444356</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43343</v>
       </c>
       <c r="B48">
-        <v>0.6146582340741391</v>
-      </c>
-      <c r="C48">
         <v>-0.00904935928607753</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43373</v>
       </c>
       <c r="B49">
-        <v>0.6227948826960932</v>
-      </c>
-      <c r="C49">
         <v>0.005039238923907341</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
       <c r="B50">
-        <v>0.7863302590612702</v>
-      </c>
-      <c r="C50">
         <v>0.1007739043972589</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43434</v>
       </c>
       <c r="B51">
-        <v>0.778201774866905</v>
-      </c>
-      <c r="C51">
         <v>-0.004550381517153923</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43465</v>
       </c>
       <c r="B52">
-        <v>0.7783781065895892</v>
-      </c>
-      <c r="C52">
         <v>9.916294381007162e-05</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43496</v>
       </c>
       <c r="B53">
-        <v>0.8832928928657837</v>
-      </c>
-      <c r="C53">
         <v>0.05899464567599222</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43524</v>
       </c>
       <c r="B54">
-        <v>0.8748674027263215</v>
-      </c>
-      <c r="C54">
         <v>-0.004473807643717742</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43555</v>
       </c>
       <c r="B55">
-        <v>0.8368621914319312</v>
-      </c>
-      <c r="C55">
         <v>-0.02027087955080198</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43585</v>
       </c>
       <c r="B56">
-        <v>0.8705689311669058</v>
-      </c>
-      <c r="C56">
         <v>0.01835017340560441</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43616</v>
       </c>
       <c r="B57">
-        <v>0.9453237245322132</v>
-      </c>
-      <c r="C57">
         <v>0.03996366673249163</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43646</v>
       </c>
       <c r="B58">
-        <v>1.026414511971341</v>
-      </c>
-      <c r="C58">
         <v>0.041684983541044</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43677</v>
       </c>
       <c r="B59">
-        <v>1.06893863437005</v>
-      </c>
-      <c r="C59">
         <v>0.02098490814563903</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43708</v>
       </c>
       <c r="B60">
-        <v>0.9707703535694978</v>
-      </c>
-      <c r="C60">
         <v>-0.04744861890523977</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43738</v>
       </c>
       <c r="B61">
-        <v>1.076622256827005</v>
-      </c>
-      <c r="C61">
         <v>0.05371092733650373</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43769</v>
       </c>
       <c r="B62">
-        <v>1.19866551435396</v>
-      </c>
-      <c r="C62">
         <v>0.05877008065657163</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43799</v>
       </c>
       <c r="B63">
-        <v>1.115000144370976</v>
-      </c>
-      <c r="C63">
         <v>-0.03805279586038701</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43830</v>
       </c>
       <c r="B64">
-        <v>1.223152524450967</v>
-      </c>
-      <c r="C64">
         <v>0.05113587361581828</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43861</v>
       </c>
       <c r="B65">
-        <v>1.253403421293425</v>
-      </c>
-      <c r="C65">
         <v>0.01360720711230945</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43890</v>
       </c>
       <c r="B66">
-        <v>1.237536553237544</v>
-      </c>
-      <c r="C66">
         <v>-0.007041290479080531</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43921</v>
       </c>
       <c r="B67">
-        <v>0.8809142565840633</v>
-      </c>
-      <c r="C67">
         <v>-0.1593816628995293</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43951</v>
       </c>
       <c r="B68">
-        <v>0.9778633493867224</v>
-      </c>
-      <c r="C68">
         <v>0.0515436003865104</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43982</v>
       </c>
       <c r="B69">
-        <v>1.097301059284697</v>
-      </c>
-      <c r="C69">
         <v>0.06038724057200828</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44012</v>
       </c>
       <c r="B70">
-        <v>1.17207935027087</v>
-      </c>
-      <c r="C70">
         <v>0.03565453355164805</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44043</v>
       </c>
       <c r="B71">
-        <v>1.320166932674338</v>
-      </c>
-      <c r="C71">
         <v>0.06817779579967964</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44074</v>
       </c>
       <c r="B72">
-        <v>1.276174706802462</v>
-      </c>
-      <c r="C72">
         <v>-0.01896080202348571</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44104</v>
       </c>
       <c r="B73">
-        <v>1.169077031374302</v>
-      </c>
-      <c r="C73">
         <v>-0.04705160597211311</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44135</v>
       </c>
       <c r="B74">
-        <v>1.117204738952385</v>
-      </c>
-      <c r="C74">
         <v>-0.02391445378454449</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>44165</v>
       </c>
       <c r="B75">
-        <v>1.189564766313174</v>
-      </c>
-      <c r="C75">
-        <v>0.03417715161387447</v>
+        <v>0.03205650749561673</v>
       </c>
     </row>
   </sheetData>
